--- a/biology/Zoologie/Dactylia/Dactylia.xlsx
+++ b/biology/Zoologie/Dactylia/Dactylia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylia est un genre de spongiaires de la famille des Callyspongiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Dactylia a été créé en 1885 par Herbert J. Carter (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 janvier 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 janvier 2021) :
 Dactylia australis (Lendenfeld, 1889)
 Dactylia candelabrum (Lendenfeld, 1889)
 Dactylia carteri Van Soest &amp; Hooper, 2020
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) H. J. Carter, « Descriptions of sponges from the neighbourhood of Port Phillip Heads, South Australia, continued », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 15, no 88,‎ avril 1885, p. 301–321 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222938509459335, lire en ligne)</t>
         </is>
